--- a/Plantilla_Carga_Conjuntos.xlsx
+++ b/Plantilla_Carga_Conjuntos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisualStudio\Personal\Roberto-Conjuntos\ProyectoConjuntos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897FD3EC-34E7-4FAF-AC32-73F2559AC890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C55B4-955F-4AA2-9BC9-0D3557ADDF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EFA01D9-4FDD-421F-870F-9CA3660FF166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EFA01D9-4FDD-421F-870F-9CA3660FF166}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="88">
   <si>
     <t>Nombre Conjunto</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>0400062981</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -673,1440 +676,1465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAC7027-CCB3-496A-B779-9AEE9039F809}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>987994664</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>101</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>34.93</v>
-      </c>
-      <c r="I2" s="4">
-        <v>40.17</v>
       </c>
       <c r="J2" s="4">
         <v>40.17</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2">
+      <c r="K2" s="4">
+        <v>40.17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2">
         <v>1708618861</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3324352</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>987994664</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2">
+      <c r="T2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2">
         <v>1891723519</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>50</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>995849051</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>81</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>82</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>987994664</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>102</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>41.69</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>47.94</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3">
         <v>1712532167</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>999595045</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S3" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3">
+      <c r="T3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3">
         <v>1792066115</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>52</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>995849051</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>81</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>5</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>82</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>987994664</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>103</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>30.25</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>34.79</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>-34.79</v>
       </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4">
         <v>1702645964</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>40</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>984921994</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4">
+      <c r="T4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4">
         <v>1792732514</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>30</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>53</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>995849051</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>81</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>5</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>82</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>987994664</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>201</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>32</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>36.799999999999997</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>73.599999999999994</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>998681277</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S5" t="s">
-        <v>77</v>
-      </c>
-      <c r="T5">
+      <c r="T5" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5">
         <v>1792732514</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>30</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>995849051</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>2</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>81</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>5</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>82</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>545</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>987994664</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>202</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>51.71</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>59.47</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>41</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>999019607</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6">
+      <c r="T6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6">
         <v>601815053</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>54</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>55</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>995849051</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>81</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>5</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>82</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>987994664</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>203</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>49.55</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>55.96</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>-167.88</v>
       </c>
-      <c r="K7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7">
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7">
         <v>1703419885</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>45</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>995919470</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S7" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7">
+      <c r="T7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U7">
         <v>1716312051</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>56</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>57</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>995849051</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>2</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>81</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>5</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>82</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4145</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>987994664</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>301</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>48.25</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>55.49</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>47</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>46</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>984203049</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S8" t="s">
-        <v>77</v>
-      </c>
-      <c r="T8">
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8">
         <v>1713084554</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>58</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>59</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>995849051</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>81</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>5</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>82</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>987994664</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>83</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>101</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>34.93</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>40.17</v>
       </c>
-      <c r="J9" s="5">
-        <f>+I9</f>
+      <c r="K9" s="5">
+        <f>+J9</f>
         <v>40.17</v>
       </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>60</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>61</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>988216512</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S9" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9">
+      <c r="T9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9">
         <v>1702544634</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>67</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>68</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>995849051</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>2</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>81</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>5</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>82</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>987994664</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>102</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>41.69</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>47.94</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10">
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10">
         <v>1701133521</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>62</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>63</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>22612802</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S10" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10">
+      <c r="T10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10">
         <v>1704883543</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>69</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>70</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>995849051</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>81</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>5</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>82</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>987994664</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>103</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>30.25</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>34.79</v>
       </c>
-      <c r="J11" s="5">
-        <f>-I11</f>
+      <c r="K11" s="5">
+        <f>-J11</f>
         <v>-34.79</v>
       </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11">
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11">
         <v>1715842728</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>64</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>61</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>999398410</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T11">
+      <c r="T11" t="s">
+        <v>77</v>
+      </c>
+      <c r="U11">
         <v>1723190649</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>71</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>35</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>995849051</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>81</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>5</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>82</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>1792371007001</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>987994664</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>201</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>32</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>36.799999999999997</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12">
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12">
         <v>1708175425</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>65</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>66</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>995008460</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S12" t="s">
-        <v>77</v>
-      </c>
-      <c r="T12">
+      <c r="T12" t="s">
+        <v>77</v>
+      </c>
+      <c r="U12">
         <v>1756427942</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>72</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>73</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>995849051</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Z12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>81</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>5</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>82</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>1792445922001</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>987994664</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>84</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>49.1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>56.47</v>
       </c>
-      <c r="J13" s="4">
-        <f>+H13</f>
+      <c r="K13" s="4">
+        <f>+I13</f>
         <v>49.1</v>
       </c>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13">
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13">
         <v>1702645964</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>40</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>41</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>999398410</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>33</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>48</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>67</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>68</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>995849051</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Z13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>2</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>81</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>5</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>82</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>1792445922001</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>987994664</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>84</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>55.96</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>63.34</v>
       </c>
-      <c r="J14" s="4">
-        <f>+H14</f>
+      <c r="K14" s="4">
+        <f>+I14</f>
         <v>55.96</v>
       </c>
-      <c r="K14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>43</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>41</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>995008460</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>48</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>67</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>68</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>995849051</v>
       </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>81</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>5</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>82</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>1792445922001</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>987994664</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>55.96</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>64.349999999999994</v>
       </c>
-      <c r="J15" s="4">
-        <f>-H15*2</f>
+      <c r="K15" s="4">
+        <f>-I15*2</f>
         <v>-111.92</v>
       </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15">
+      <c r="L15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15">
         <v>1715842728</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>64</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>61</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>998681277</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S15" t="s">
-        <v>77</v>
-      </c>
-      <c r="T15">
+      <c r="T15" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15">
         <v>1723190649</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>71</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>35</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>995849051</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Z15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>81</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>5</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>82</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>1792445922001</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>987994664</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>76</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>84</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>13</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>41.69</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>47.94</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0</v>
       </c>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16">
+      <c r="L16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16">
         <v>1708175425</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>65</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>66</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>999019607</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S16" t="s">
-        <v>77</v>
-      </c>
-      <c r="T16">
+      <c r="T16" t="s">
+        <v>77</v>
+      </c>
+      <c r="U16">
         <v>1792732514</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>30</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>53</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>995849051</v>
       </c>
-      <c r="Y16" s="2" t="s">
+      <c r="Z16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>81</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>5</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>82</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>1792445922001</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>987994664</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>84</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>14</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>51.67</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>59.42</v>
       </c>
-      <c r="J17" s="4">
-        <f>-H17*3</f>
+      <c r="K17" s="4">
+        <f>-I17*3</f>
         <v>-155.01</v>
       </c>
-      <c r="K17" t="s">
-        <v>77</v>
-      </c>
+      <c r="L17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{DED22F60-A7B1-4B81-80CA-0A114C5E51C7}"/>
-    <hyperlink ref="C2" r:id="rId2" display="roberto.amoncayo@gmail.com" xr:uid="{1CC73324-E998-4D0E-B73B-C9B24149C341}"/>
-    <hyperlink ref="C3" r:id="rId3" display="roberto.amoncayo@gmail.com" xr:uid="{07506FA4-5524-44C6-B775-017CC9FC7B8B}"/>
-    <hyperlink ref="C4" r:id="rId4" display="roberto.amoncayo@gmail.com" xr:uid="{A2E8FA84-10C9-4D0A-9FF8-E4FA03ABED3D}"/>
-    <hyperlink ref="C5" r:id="rId5" display="roberto.amoncayo@gmail.com" xr:uid="{B9EC9983-CB4F-4086-A83C-F4F0C1727EDE}"/>
-    <hyperlink ref="C6" r:id="rId6" display="roberto.amoncayo@gmail.com" xr:uid="{1AB8912E-D585-4ECB-B795-3C6685734AD9}"/>
-    <hyperlink ref="C7" r:id="rId7" display="roberto.amoncayo@gmail.com" xr:uid="{288E9A48-6AC6-4590-97DC-B4CCC45C128D}"/>
-    <hyperlink ref="C8" r:id="rId8" display="roberto.amoncayo@gmail.com" xr:uid="{BA917E08-3AEB-4881-845F-D8A60540DB85}"/>
-    <hyperlink ref="Y2:Y7" r:id="rId9" display="roberto.amoncayo@gmail.com" xr:uid="{F4AFB9F0-DE6C-4DA0-8CFA-6C5FBC34EF32}"/>
-    <hyperlink ref="C9" r:id="rId10" display="roberto.amoncayo@gmail.com" xr:uid="{CC60CC3C-D8A9-4EC4-91ED-44DA60A6291C}"/>
-    <hyperlink ref="C10" r:id="rId11" display="roberto.amoncayo@gmail.com" xr:uid="{B781365B-E3F2-451E-AE41-18BEEA4BB72E}"/>
-    <hyperlink ref="C11" r:id="rId12" display="roberto.amoncayo@gmail.com" xr:uid="{37C3725C-BD33-41BA-A8F0-4AE9E8DDF20F}"/>
-    <hyperlink ref="C12" r:id="rId13" display="roberto.amoncayo@gmail.com" xr:uid="{BF51157C-0A97-4409-B351-5DF28F1B54D8}"/>
-    <hyperlink ref="Y8:Y12" r:id="rId14" display="roberto.amoncayo@gmail.com" xr:uid="{58CF8FB2-6EC7-4CE2-8D2C-CBDDC008D47F}"/>
-    <hyperlink ref="Y13:Y16" r:id="rId15" display="roberto.amoncayo@gmail.com" xr:uid="{AB294FF7-9818-4C88-8D96-9294327EFEE9}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{DED22F60-A7B1-4B81-80CA-0A114C5E51C7}"/>
+    <hyperlink ref="D2" r:id="rId2" display="roberto.amoncayo@gmail.com" xr:uid="{1CC73324-E998-4D0E-B73B-C9B24149C341}"/>
+    <hyperlink ref="D3" r:id="rId3" display="roberto.amoncayo@gmail.com" xr:uid="{07506FA4-5524-44C6-B775-017CC9FC7B8B}"/>
+    <hyperlink ref="D4" r:id="rId4" display="roberto.amoncayo@gmail.com" xr:uid="{A2E8FA84-10C9-4D0A-9FF8-E4FA03ABED3D}"/>
+    <hyperlink ref="D5" r:id="rId5" display="roberto.amoncayo@gmail.com" xr:uid="{B9EC9983-CB4F-4086-A83C-F4F0C1727EDE}"/>
+    <hyperlink ref="D6" r:id="rId6" display="roberto.amoncayo@gmail.com" xr:uid="{1AB8912E-D585-4ECB-B795-3C6685734AD9}"/>
+    <hyperlink ref="D7" r:id="rId7" display="roberto.amoncayo@gmail.com" xr:uid="{288E9A48-6AC6-4590-97DC-B4CCC45C128D}"/>
+    <hyperlink ref="D8" r:id="rId8" display="roberto.amoncayo@gmail.com" xr:uid="{BA917E08-3AEB-4881-845F-D8A60540DB85}"/>
+    <hyperlink ref="Z2:Z7" r:id="rId9" display="roberto.amoncayo@gmail.com" xr:uid="{F4AFB9F0-DE6C-4DA0-8CFA-6C5FBC34EF32}"/>
+    <hyperlink ref="D9" r:id="rId10" display="roberto.amoncayo@gmail.com" xr:uid="{CC60CC3C-D8A9-4EC4-91ED-44DA60A6291C}"/>
+    <hyperlink ref="D10" r:id="rId11" display="roberto.amoncayo@gmail.com" xr:uid="{B781365B-E3F2-451E-AE41-18BEEA4BB72E}"/>
+    <hyperlink ref="D11" r:id="rId12" display="roberto.amoncayo@gmail.com" xr:uid="{37C3725C-BD33-41BA-A8F0-4AE9E8DDF20F}"/>
+    <hyperlink ref="D12" r:id="rId13" display="roberto.amoncayo@gmail.com" xr:uid="{BF51157C-0A97-4409-B351-5DF28F1B54D8}"/>
+    <hyperlink ref="Z8:Z12" r:id="rId14" display="roberto.amoncayo@gmail.com" xr:uid="{58CF8FB2-6EC7-4CE2-8D2C-CBDDC008D47F}"/>
+    <hyperlink ref="Z13:Z16" r:id="rId15" display="roberto.amoncayo@gmail.com" xr:uid="{AB294FF7-9818-4C88-8D96-9294327EFEE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
